--- a/wdc_libs/parsers/wdc-timeline/timeline5.31.xlsx
+++ b/wdc_libs/parsers/wdc-timeline/timeline5.31.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="15120" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>key</t>
   </si>
@@ -287,13 +287,19 @@
   </si>
   <si>
     <t>Key Actions for Top-5 breaks minimization</t>
+  </si>
+  <si>
+    <t>dataset.id</t>
+  </si>
+  <si>
+    <t>ce5c6250-aff8-11e6-bf26-9bee11936d1b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +356,13 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -399,7 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -451,6 +464,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -753,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,88 +804,97 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1081,7 +1104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
